--- a/Анализ предметной области.xlsx
+++ b/Анализ предметной области.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\University\4Course\Diploma\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E446102-C448-421B-9AF9-1C883D266132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+  <si>
+    <t>Актуальное расписание занятий</t>
+  </si>
+  <si>
+    <t>есть</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Доступ у списку студентов группы</t>
+  </si>
+  <si>
+    <t>Разрабатываемый сервис (студент)</t>
+  </si>
+  <si>
+    <t>Личный кабинет студента ИжГТУ</t>
+  </si>
+  <si>
+    <t>Лента новостей университета</t>
+  </si>
+  <si>
+    <t>Лента объявлений старосты и преподавателей</t>
+  </si>
+  <si>
+    <t>Удобный интерфейс</t>
+  </si>
+  <si>
+    <t>Возможность у старосты размещать объявления для студентов</t>
+  </si>
+  <si>
+    <t>есть(+-)</t>
+  </si>
+  <si>
+    <t>Возможность посмотреть релевантную информацию об изучаемом предмете</t>
+  </si>
+  <si>
+    <t>Доступный профиль преподавателя</t>
+  </si>
+  <si>
+    <t>Отслеживание прогресса выполнения заданий по предмету</t>
+  </si>
+  <si>
+    <t>Зачетная книжка</t>
+  </si>
+  <si>
+    <t>Возможносность у старосты отмечать посещаемость</t>
+  </si>
+  <si>
+    <t>Разрабатываемый сервис (преподаватель)</t>
+  </si>
+  <si>
+    <t>Личный кабинет преподавателя</t>
+  </si>
+  <si>
+    <t>Сайт ИжГТУ (ee.istu)</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Доступ к списку студентов обучаемых групп</t>
+  </si>
+  <si>
+    <t>есть (если подписались)</t>
+  </si>
+  <si>
+    <t>Доступ к статусу преподавателя (в каком кабинете проводит пару)</t>
+  </si>
+  <si>
+    <t>Возможность писать объявления для обучаемых групп</t>
+  </si>
+  <si>
+    <t>Профиль студента с контактной информацией</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +151,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +436,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="A16:D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="72.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>